--- a/storage/imports/products.xlsx
+++ b/storage/imports/products.xlsx
@@ -11,9 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="42">
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>user_id</t>
   </si>
   <si>
     <t>category_id</t>
@@ -140,7 +143,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -150,6 +153,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -176,14 +180,17 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
@@ -403,14 +410,14 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="4" max="5" width="17.0"/>
+    <col customWidth="1" min="5" max="6" width="17.0"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -452,54 +459,60 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>1.0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="1">
         <v>7.0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.0</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1">
         <v>50000.0</v>
       </c>
-      <c r="H2" s="1">
-        <f t="shared" ref="H2:H61" si="1">G2*90%</f>
+      <c r="I2" s="1">
+        <f t="shared" ref="I2:I61" si="1">H2*90%</f>
         <v>45000</v>
       </c>
-      <c r="I2" s="1">
-        <f t="shared" ref="I2:I61" si="2">G2*5%</f>
+      <c r="J2" s="1">
+        <f t="shared" ref="J2:J61" si="2">H2*5%</f>
         <v>2500</v>
       </c>
-      <c r="J2" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K2" s="1">
         <v>1.0</v>
       </c>
       <c r="L2" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M2" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -507,48 +520,52 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1">
+        <f t="shared" ref="B3:B31" si="3">B2</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
         <v>7.0</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.0</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1">
         <v>30000.0</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <f t="shared" si="1"/>
         <v>27000</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="J3" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K3" s="1">
         <v>1.0</v>
       </c>
       <c r="L3" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M3" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -556,2898 +573,3129 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
         <v>8.0</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.0</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1">
         <v>28000.0</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <f t="shared" si="1"/>
         <v>25200</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <f t="shared" si="2"/>
         <v>1400</v>
       </c>
-      <c r="J4" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K4" s="1">
         <v>1.0</v>
       </c>
       <c r="L4" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M4" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3">
-        <f t="shared" ref="A5:A61" si="3">A4+1</f>
+      <c r="A5" s="4">
+        <f t="shared" ref="A5:A61" si="4">A4+1</f>
         <v>4</v>
       </c>
       <c r="B5" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
         <v>8.0</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.0</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="1">
         <v>25000.0</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <f t="shared" si="1"/>
         <v>22500</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <f t="shared" si="2"/>
         <v>1250</v>
       </c>
-      <c r="J5" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K5" s="1">
         <v>1.0</v>
       </c>
       <c r="L5" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M5" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
         <v>4.0</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.0</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="1">
         <v>17000.0</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <f t="shared" si="1"/>
         <v>15300</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <f t="shared" si="2"/>
         <v>850</v>
       </c>
-      <c r="J6" s="1">
-        <v>0.0</v>
-      </c>
       <c r="K6" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L6" s="1">
         <v>1.0</v>
       </c>
       <c r="M6" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>18</v>
+        <v>1.0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
         <v>5.0</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.0</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="1">
         <v>60000.0</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <f t="shared" si="1"/>
         <v>54000</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-      <c r="J7" s="1">
-        <v>0.0</v>
-      </c>
       <c r="K7" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L7" s="1">
         <v>1.0</v>
       </c>
       <c r="M7" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>18</v>
+        <v>1.0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
         <v>7.0</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>32</v>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.0</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="1">
         <v>9000.0</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <f t="shared" si="1"/>
         <v>8100</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <f t="shared" si="2"/>
         <v>450</v>
       </c>
-      <c r="J8" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K8" s="1">
         <v>1.0</v>
       </c>
       <c r="L8" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M8" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
         <v>6.0</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.0</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="1">
         <v>99000.0</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <f t="shared" si="1"/>
         <v>89100</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <f t="shared" si="2"/>
         <v>4950</v>
       </c>
-      <c r="J9" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K9" s="1">
         <v>1.0</v>
       </c>
       <c r="L9" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M9" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
         <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
         <v>8.0</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>37</v>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.0</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="1">
         <v>64500.0</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <f t="shared" si="1"/>
         <v>58050</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <f t="shared" si="2"/>
         <v>3225</v>
       </c>
-      <c r="J10" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K10" s="1">
         <v>1.0</v>
       </c>
       <c r="L10" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M10" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
         <v>8.0</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>39</v>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.0</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="1">
         <v>32180.0</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <f t="shared" si="1"/>
         <v>28962</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <f t="shared" si="2"/>
         <v>1609</v>
       </c>
-      <c r="J11" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K11" s="1">
         <v>1.0</v>
       </c>
       <c r="L11" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M11" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
         <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
         <v>7.0</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="1">
         <v>2.0</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="1">
         <v>50000.0</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <f t="shared" si="1"/>
         <v>45000</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <f t="shared" si="2"/>
         <v>2500</v>
       </c>
-      <c r="J12" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K12" s="1">
         <v>1.0</v>
       </c>
       <c r="L12" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M12" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
         <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
         <v>7.0</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="1">
         <v>2.0</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="1">
         <v>30000.0</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <f t="shared" si="1"/>
         <v>27000</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="J13" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K13" s="1">
         <v>1.0</v>
       </c>
       <c r="L13" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M13" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
         <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
         <v>8.0</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="D14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="1">
         <v>2.0</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="1">
         <v>28000.0</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <f t="shared" si="1"/>
         <v>25200</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <f t="shared" si="2"/>
         <v>1400</v>
       </c>
-      <c r="J14" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K14" s="1">
         <v>1.0</v>
       </c>
       <c r="L14" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M14" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
         <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
         <v>8.0</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="D15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="1">
         <v>2.0</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="1">
         <v>25000.0</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <f t="shared" si="1"/>
         <v>22500</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <f t="shared" si="2"/>
         <v>1250</v>
       </c>
-      <c r="J15" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K15" s="1">
         <v>1.0</v>
       </c>
       <c r="L15" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M15" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
         <v>4.0</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="1">
         <v>2.0</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="1">
         <v>17000.0</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <f t="shared" si="1"/>
         <v>15300</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <f t="shared" si="2"/>
         <v>850</v>
       </c>
-      <c r="J16" s="1">
-        <v>0.0</v>
-      </c>
       <c r="K16" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L16" s="1">
         <v>1.0</v>
       </c>
       <c r="M16" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>18</v>
+        <v>1.0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
         <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
         <v>5.0</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="D17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="1">
         <v>2.0</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="1">
         <v>60000.0</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <f t="shared" si="1"/>
         <v>54000</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-      <c r="J17" s="1">
-        <v>0.0</v>
-      </c>
       <c r="K17" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L17" s="1">
         <v>1.0</v>
       </c>
       <c r="M17" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>18</v>
+        <v>1.0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
         <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
         <v>7.0</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="D18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="1">
         <v>2.0</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="1">
         <v>9000.0</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <f t="shared" si="1"/>
         <v>8100</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <f t="shared" si="2"/>
         <v>450</v>
       </c>
-      <c r="J18" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K18" s="1">
         <v>1.0</v>
       </c>
       <c r="L18" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M18" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N18" s="2" t="s">
+        <v>0.0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="O18" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3">
+      <c r="B19" s="1">
         <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
         <v>6.0</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="D19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="1">
         <v>2.0</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="1">
         <v>99000.0</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <f t="shared" si="1"/>
         <v>89100</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <f t="shared" si="2"/>
         <v>4950</v>
       </c>
-      <c r="J19" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K19" s="1">
         <v>1.0</v>
       </c>
       <c r="L19" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M19" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
         <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
         <v>8.0</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="D20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="1">
         <v>2.0</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="1">
         <v>64500.0</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <f t="shared" si="1"/>
         <v>58050</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J20" s="1">
         <f t="shared" si="2"/>
         <v>3225</v>
       </c>
-      <c r="J20" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K20" s="1">
         <v>1.0</v>
       </c>
       <c r="L20" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M20" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
         <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
         <v>8.0</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="D21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="1">
         <v>2.0</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="1">
         <v>32180.0</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <f t="shared" si="1"/>
         <v>28962</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J21" s="1">
         <f t="shared" si="2"/>
         <v>1609</v>
       </c>
-      <c r="J21" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K21" s="1">
         <v>1.0</v>
       </c>
       <c r="L21" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M21" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3">
+      <c r="A22" s="4">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
         <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
         <v>7.0</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="D22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="1">
         <v>3.0</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="1">
         <v>50000.0</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <f t="shared" si="1"/>
         <v>45000</v>
       </c>
-      <c r="I22" s="1">
+      <c r="J22" s="1">
         <f t="shared" si="2"/>
         <v>2500</v>
       </c>
-      <c r="J22" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K22" s="1">
         <v>1.0</v>
       </c>
       <c r="L22" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M22" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
         <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
         <v>7.0</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="D23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="1">
         <v>3.0</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="1">
         <v>30000.0</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <f t="shared" si="1"/>
         <v>27000</v>
       </c>
-      <c r="I23" s="1">
+      <c r="J23" s="1">
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="J23" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K23" s="1">
         <v>1.0</v>
       </c>
       <c r="L23" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M23" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3">
+      <c r="A24" s="4">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
         <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
         <v>8.0</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="D24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="1">
         <v>3.0</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="1">
         <v>28000.0</v>
       </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
         <f t="shared" si="1"/>
         <v>25200</v>
       </c>
-      <c r="I24" s="1">
+      <c r="J24" s="1">
         <f t="shared" si="2"/>
         <v>1400</v>
       </c>
-      <c r="J24" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K24" s="1">
         <v>1.0</v>
       </c>
       <c r="L24" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M24" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
         <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
         <v>8.0</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="D25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="1">
         <v>3.0</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="1">
         <v>25000.0</v>
       </c>
-      <c r="H25" s="1">
+      <c r="I25" s="1">
         <f t="shared" si="1"/>
         <v>22500</v>
       </c>
-      <c r="I25" s="1">
+      <c r="J25" s="1">
         <f t="shared" si="2"/>
         <v>1250</v>
       </c>
-      <c r="J25" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K25" s="1">
         <v>1.0</v>
       </c>
       <c r="L25" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M25" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3">
+      <c r="A26" s="4">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
         <v>4.0</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="D26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="1">
         <v>3.0</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="1">
         <v>17000.0</v>
       </c>
-      <c r="H26" s="1">
+      <c r="I26" s="1">
         <f t="shared" si="1"/>
         <v>15300</v>
       </c>
-      <c r="I26" s="1">
+      <c r="J26" s="1">
         <f t="shared" si="2"/>
         <v>850</v>
       </c>
-      <c r="J26" s="1">
-        <v>0.0</v>
-      </c>
       <c r="K26" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L26" s="1">
         <v>1.0</v>
       </c>
       <c r="M26" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>18</v>
+        <v>1.0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
         <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
         <v>5.0</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="D27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="1">
         <v>3.0</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="1">
         <v>60000.0</v>
       </c>
-      <c r="H27" s="1">
+      <c r="I27" s="1">
         <f t="shared" si="1"/>
         <v>54000</v>
       </c>
-      <c r="I27" s="1">
+      <c r="J27" s="1">
         <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-      <c r="J27" s="1">
-        <v>0.0</v>
-      </c>
       <c r="K27" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L27" s="1">
         <v>1.0</v>
       </c>
       <c r="M27" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>18</v>
+        <v>1.0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3">
+      <c r="A28" s="4">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
         <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
         <v>7.0</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="D28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="1">
         <v>3.0</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="1">
         <v>9000.0</v>
       </c>
-      <c r="H28" s="1">
+      <c r="I28" s="1">
         <f t="shared" si="1"/>
         <v>8100</v>
       </c>
-      <c r="I28" s="1">
+      <c r="J28" s="1">
         <f t="shared" si="2"/>
         <v>450</v>
       </c>
-      <c r="J28" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K28" s="1">
         <v>1.0</v>
       </c>
       <c r="L28" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M28" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3">
+      <c r="A29" s="4">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
         <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
         <v>6.0</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="D29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="1">
         <v>3.0</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="1">
         <v>99000.0</v>
       </c>
-      <c r="H29" s="1">
+      <c r="I29" s="1">
         <f t="shared" si="1"/>
         <v>89100</v>
       </c>
-      <c r="I29" s="1">
+      <c r="J29" s="1">
         <f t="shared" si="2"/>
         <v>4950</v>
       </c>
-      <c r="J29" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K29" s="1">
         <v>1.0</v>
       </c>
       <c r="L29" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M29" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3">
+      <c r="A30" s="4">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
         <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
         <v>8.0</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="D30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="1">
         <v>3.0</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="1">
         <v>64500.0</v>
       </c>
-      <c r="H30" s="1">
+      <c r="I30" s="1">
         <f t="shared" si="1"/>
         <v>58050</v>
       </c>
-      <c r="I30" s="1">
+      <c r="J30" s="1">
         <f t="shared" si="2"/>
         <v>3225</v>
       </c>
-      <c r="J30" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K30" s="1">
         <v>1.0</v>
       </c>
       <c r="L30" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M30" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3">
+      <c r="A31" s="4">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
         <v>8.0</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="1">
+      <c r="D31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="1">
         <v>3.0</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" s="1">
         <v>32180.0</v>
       </c>
-      <c r="H31" s="1">
+      <c r="I31" s="1">
         <f t="shared" si="1"/>
         <v>28962</v>
       </c>
-      <c r="I31" s="1">
+      <c r="J31" s="1">
         <f t="shared" si="2"/>
         <v>1609</v>
       </c>
-      <c r="J31" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K31" s="1">
         <v>1.0</v>
       </c>
       <c r="L31" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M31" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3">
-        <f t="shared" si="3"/>
+      <c r="A32" s="4">
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C32" s="1">
         <v>7.0</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="D32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="1">
         <v>4.0</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="1">
         <v>50000.0</v>
       </c>
-      <c r="H32" s="1">
+      <c r="I32" s="1">
         <f t="shared" si="1"/>
         <v>45000</v>
       </c>
-      <c r="I32" s="1">
+      <c r="J32" s="1">
         <f t="shared" si="2"/>
         <v>2500</v>
       </c>
-      <c r="J32" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K32" s="1">
         <v>1.0</v>
       </c>
       <c r="L32" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M32" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3">
-        <f t="shared" si="3"/>
+      <c r="A33" s="4">
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B33" s="1">
+        <f t="shared" ref="B33:B61" si="5">B32</f>
+        <v>2</v>
+      </c>
+      <c r="C33" s="1">
         <v>7.0</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="D33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="1">
         <v>4.0</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="1">
         <v>30000.0</v>
       </c>
-      <c r="H33" s="1">
+      <c r="I33" s="1">
         <f t="shared" si="1"/>
         <v>27000</v>
       </c>
-      <c r="I33" s="1">
+      <c r="J33" s="1">
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="J33" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K33" s="1">
         <v>1.0</v>
       </c>
       <c r="L33" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M33" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3">
-        <f t="shared" si="3"/>
+      <c r="A34" s="4">
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B34" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="C34" s="1">
         <v>8.0</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="1">
+      <c r="D34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="1">
         <v>4.0</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="1">
         <v>28000.0</v>
       </c>
-      <c r="H34" s="1">
+      <c r="I34" s="1">
         <f t="shared" si="1"/>
         <v>25200</v>
       </c>
-      <c r="I34" s="1">
+      <c r="J34" s="1">
         <f t="shared" si="2"/>
         <v>1400</v>
       </c>
-      <c r="J34" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K34" s="1">
         <v>1.0</v>
       </c>
       <c r="L34" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M34" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3">
-        <f t="shared" si="3"/>
+      <c r="A35" s="4">
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B35" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="C35" s="1">
         <v>8.0</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="1">
+      <c r="D35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="1">
         <v>4.0</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="1">
         <v>25000.0</v>
       </c>
-      <c r="H35" s="1">
+      <c r="I35" s="1">
         <f t="shared" si="1"/>
         <v>22500</v>
       </c>
-      <c r="I35" s="1">
+      <c r="J35" s="1">
         <f t="shared" si="2"/>
         <v>1250</v>
       </c>
-      <c r="J35" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K35" s="1">
         <v>1.0</v>
       </c>
       <c r="L35" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M35" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N35" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3">
-        <f t="shared" si="3"/>
+      <c r="A36" s="4">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B36" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="C36" s="1">
         <v>4.0</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="1">
+      <c r="D36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="1">
         <v>4.0</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="1">
         <v>17000.0</v>
       </c>
-      <c r="H36" s="1">
+      <c r="I36" s="1">
         <f t="shared" si="1"/>
         <v>15300</v>
       </c>
-      <c r="I36" s="1">
+      <c r="J36" s="1">
         <f t="shared" si="2"/>
         <v>850</v>
       </c>
-      <c r="J36" s="1">
-        <v>0.0</v>
-      </c>
       <c r="K36" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L36" s="1">
         <v>1.0</v>
       </c>
       <c r="M36" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>18</v>
+        <v>1.0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3">
-        <f t="shared" si="3"/>
+      <c r="A37" s="4">
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B37" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="C37" s="1">
         <v>5.0</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="1">
+      <c r="D37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="1">
         <v>4.0</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" s="1">
         <v>60000.0</v>
       </c>
-      <c r="H37" s="1">
+      <c r="I37" s="1">
         <f t="shared" si="1"/>
         <v>54000</v>
       </c>
-      <c r="I37" s="1">
+      <c r="J37" s="1">
         <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-      <c r="J37" s="1">
-        <v>0.0</v>
-      </c>
       <c r="K37" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L37" s="1">
         <v>1.0</v>
       </c>
       <c r="M37" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>18</v>
+        <v>1.0</v>
+      </c>
+      <c r="N37" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3">
-        <f t="shared" si="3"/>
+      <c r="A38" s="4">
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="B38" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="C38" s="1">
         <v>7.0</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="1">
+      <c r="D38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="1">
         <v>4.0</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" s="1">
         <v>9000.0</v>
       </c>
-      <c r="H38" s="1">
+      <c r="I38" s="1">
         <f t="shared" si="1"/>
         <v>8100</v>
       </c>
-      <c r="I38" s="1">
+      <c r="J38" s="1">
         <f t="shared" si="2"/>
         <v>450</v>
       </c>
-      <c r="J38" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K38" s="1">
         <v>1.0</v>
       </c>
       <c r="L38" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M38" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3">
-        <f t="shared" si="3"/>
+      <c r="A39" s="4">
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="B39" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="C39" s="1">
         <v>6.0</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="1">
+      <c r="D39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="1">
         <v>4.0</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39" s="1">
         <v>99000.0</v>
       </c>
-      <c r="H39" s="1">
+      <c r="I39" s="1">
         <f t="shared" si="1"/>
         <v>89100</v>
       </c>
-      <c r="I39" s="1">
+      <c r="J39" s="1">
         <f t="shared" si="2"/>
         <v>4950</v>
       </c>
-      <c r="J39" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K39" s="1">
         <v>1.0</v>
       </c>
       <c r="L39" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M39" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N39" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3">
-        <f t="shared" si="3"/>
+      <c r="A40" s="4">
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="B40" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="C40" s="1">
         <v>8.0</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="1">
+      <c r="D40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="1">
         <v>4.0</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H40" s="1">
         <v>64500.0</v>
       </c>
-      <c r="H40" s="1">
+      <c r="I40" s="1">
         <f t="shared" si="1"/>
         <v>58050</v>
       </c>
-      <c r="I40" s="1">
+      <c r="J40" s="1">
         <f t="shared" si="2"/>
         <v>3225</v>
       </c>
-      <c r="J40" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K40" s="1">
         <v>1.0</v>
       </c>
       <c r="L40" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M40" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N40" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3">
-        <f t="shared" si="3"/>
+      <c r="A41" s="4">
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="B41" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="C41" s="1">
         <v>8.0</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="1">
+      <c r="D41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="1">
         <v>4.0</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H41" s="1">
         <v>32180.0</v>
       </c>
-      <c r="H41" s="1">
+      <c r="I41" s="1">
         <f t="shared" si="1"/>
         <v>28962</v>
       </c>
-      <c r="I41" s="1">
+      <c r="J41" s="1">
         <f t="shared" si="2"/>
         <v>1609</v>
       </c>
-      <c r="J41" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K41" s="1">
         <v>1.0</v>
       </c>
       <c r="L41" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M41" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N41" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3">
-        <f t="shared" si="3"/>
+      <c r="A42" s="4">
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="B42" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="C42" s="1">
         <v>7.0</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="1">
+      <c r="D42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="1">
         <v>5.0</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="1">
         <v>50000.0</v>
       </c>
-      <c r="H42" s="1">
+      <c r="I42" s="1">
         <f t="shared" si="1"/>
         <v>45000</v>
       </c>
-      <c r="I42" s="1">
+      <c r="J42" s="1">
         <f t="shared" si="2"/>
         <v>2500</v>
       </c>
-      <c r="J42" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K42" s="1">
         <v>1.0</v>
       </c>
       <c r="L42" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M42" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N42" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3">
-        <f t="shared" si="3"/>
+      <c r="A43" s="4">
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="B43" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="C43" s="1">
         <v>7.0</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="1">
+      <c r="D43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="1">
         <v>5.0</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" s="1">
         <v>30000.0</v>
       </c>
-      <c r="H43" s="1">
+      <c r="I43" s="1">
         <f t="shared" si="1"/>
         <v>27000</v>
       </c>
-      <c r="I43" s="1">
+      <c r="J43" s="1">
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="J43" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K43" s="1">
         <v>1.0</v>
       </c>
       <c r="L43" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M43" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O43" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N43" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3">
-        <f t="shared" si="3"/>
+      <c r="A44" s="4">
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="B44" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="C44" s="1">
         <v>8.0</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="1">
+      <c r="D44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="1">
         <v>5.0</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="1">
         <v>28000.0</v>
       </c>
-      <c r="H44" s="1">
+      <c r="I44" s="1">
         <f t="shared" si="1"/>
         <v>25200</v>
       </c>
-      <c r="I44" s="1">
+      <c r="J44" s="1">
         <f t="shared" si="2"/>
         <v>1400</v>
       </c>
-      <c r="J44" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K44" s="1">
         <v>1.0</v>
       </c>
       <c r="L44" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M44" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O44" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N44" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3">
-        <f t="shared" si="3"/>
+      <c r="A45" s="4">
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="B45" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="C45" s="1">
         <v>8.0</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="1">
+      <c r="D45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="1">
         <v>5.0</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" s="1">
         <v>25000.0</v>
       </c>
-      <c r="H45" s="1">
+      <c r="I45" s="1">
         <f t="shared" si="1"/>
         <v>22500</v>
       </c>
-      <c r="I45" s="1">
+      <c r="J45" s="1">
         <f t="shared" si="2"/>
         <v>1250</v>
       </c>
-      <c r="J45" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K45" s="1">
         <v>1.0</v>
       </c>
       <c r="L45" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M45" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O45" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N45" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3">
-        <f t="shared" si="3"/>
+      <c r="A46" s="4">
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="B46" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="C46" s="1">
         <v>4.0</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46" s="1">
+      <c r="D46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="1">
         <v>5.0</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H46" s="1">
         <v>17000.0</v>
       </c>
-      <c r="H46" s="1">
+      <c r="I46" s="1">
         <f t="shared" si="1"/>
         <v>15300</v>
       </c>
-      <c r="I46" s="1">
+      <c r="J46" s="1">
         <f t="shared" si="2"/>
         <v>850</v>
       </c>
-      <c r="J46" s="1">
-        <v>0.0</v>
-      </c>
       <c r="K46" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L46" s="1">
         <v>1.0</v>
       </c>
       <c r="M46" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>18</v>
+        <v>1.0</v>
+      </c>
+      <c r="N46" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3">
-        <f t="shared" si="3"/>
+      <c r="A47" s="4">
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="B47" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="C47" s="1">
         <v>5.0</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="1">
+      <c r="D47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="1">
         <v>5.0</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" s="1">
         <v>60000.0</v>
       </c>
-      <c r="H47" s="1">
+      <c r="I47" s="1">
         <f t="shared" si="1"/>
         <v>54000</v>
       </c>
-      <c r="I47" s="1">
+      <c r="J47" s="1">
         <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-      <c r="J47" s="1">
-        <v>0.0</v>
-      </c>
       <c r="K47" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L47" s="1">
         <v>1.0</v>
       </c>
       <c r="M47" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>18</v>
+        <v>1.0</v>
+      </c>
+      <c r="N47" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3">
-        <f t="shared" si="3"/>
+      <c r="A48" s="4">
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="B48" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="C48" s="1">
         <v>7.0</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="1">
+      <c r="D48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="1">
         <v>5.0</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H48" s="1">
         <v>9000.0</v>
       </c>
-      <c r="H48" s="1">
+      <c r="I48" s="1">
         <f t="shared" si="1"/>
         <v>8100</v>
       </c>
-      <c r="I48" s="1">
+      <c r="J48" s="1">
         <f t="shared" si="2"/>
         <v>450</v>
       </c>
-      <c r="J48" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K48" s="1">
         <v>1.0</v>
       </c>
       <c r="L48" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M48" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N48" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O48" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N48" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3">
-        <f t="shared" si="3"/>
+      <c r="A49" s="4">
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="B49" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="C49" s="1">
         <v>6.0</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D49" s="1">
+      <c r="D49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" s="1">
         <v>5.0</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H49" s="1">
         <v>99000.0</v>
       </c>
-      <c r="H49" s="1">
+      <c r="I49" s="1">
         <f t="shared" si="1"/>
         <v>89100</v>
       </c>
-      <c r="I49" s="1">
+      <c r="J49" s="1">
         <f t="shared" si="2"/>
         <v>4950</v>
       </c>
-      <c r="J49" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K49" s="1">
         <v>1.0</v>
       </c>
       <c r="L49" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M49" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O49" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N49" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3">
-        <f t="shared" si="3"/>
+      <c r="A50" s="4">
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="B50" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="C50" s="1">
         <v>8.0</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" s="1">
+      <c r="D50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="1">
         <v>5.0</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H50" s="1">
         <v>64500.0</v>
       </c>
-      <c r="H50" s="1">
+      <c r="I50" s="1">
         <f t="shared" si="1"/>
         <v>58050</v>
       </c>
-      <c r="I50" s="1">
+      <c r="J50" s="1">
         <f t="shared" si="2"/>
         <v>3225</v>
       </c>
-      <c r="J50" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K50" s="1">
         <v>1.0</v>
       </c>
       <c r="L50" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M50" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O50" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N50" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3">
-        <f t="shared" si="3"/>
+      <c r="A51" s="4">
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="B51" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="C51" s="1">
         <v>8.0</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" s="1">
+      <c r="D51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="1">
         <v>5.0</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H51" s="1">
         <v>32180.0</v>
       </c>
-      <c r="H51" s="1">
+      <c r="I51" s="1">
         <f t="shared" si="1"/>
         <v>28962</v>
       </c>
-      <c r="I51" s="1">
+      <c r="J51" s="1">
         <f t="shared" si="2"/>
         <v>1609</v>
       </c>
-      <c r="J51" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K51" s="1">
         <v>1.0</v>
       </c>
       <c r="L51" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M51" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N51" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O51" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N51" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3">
-        <f t="shared" si="3"/>
+      <c r="A52" s="4">
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="B52" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="C52" s="1">
         <v>7.0</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" s="1">
+      <c r="D52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="1">
         <v>6.0</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="1">
         <v>50000.0</v>
       </c>
-      <c r="H52" s="1">
+      <c r="I52" s="1">
         <f t="shared" si="1"/>
         <v>45000</v>
       </c>
-      <c r="I52" s="1">
+      <c r="J52" s="1">
         <f t="shared" si="2"/>
         <v>2500</v>
       </c>
-      <c r="J52" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K52" s="1">
         <v>1.0</v>
       </c>
       <c r="L52" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M52" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N52" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O52" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N52" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3">
-        <f t="shared" si="3"/>
+      <c r="A53" s="4">
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="B53" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="C53" s="1">
         <v>7.0</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" s="1">
+      <c r="D53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="1">
         <v>6.0</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" s="1">
         <v>30000.0</v>
       </c>
-      <c r="H53" s="1">
+      <c r="I53" s="1">
         <f t="shared" si="1"/>
         <v>27000</v>
       </c>
-      <c r="I53" s="1">
+      <c r="J53" s="1">
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="J53" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K53" s="1">
         <v>1.0</v>
       </c>
       <c r="L53" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M53" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O53" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N53" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3">
-        <f t="shared" si="3"/>
+      <c r="A54" s="4">
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="B54" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="C54" s="1">
         <v>8.0</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D54" s="1">
+      <c r="D54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="1">
         <v>6.0</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" s="1">
         <v>28000.0</v>
       </c>
-      <c r="H54" s="1">
+      <c r="I54" s="1">
         <f t="shared" si="1"/>
         <v>25200</v>
       </c>
-      <c r="I54" s="1">
+      <c r="J54" s="1">
         <f t="shared" si="2"/>
         <v>1400</v>
       </c>
-      <c r="J54" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K54" s="1">
         <v>1.0</v>
       </c>
       <c r="L54" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M54" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N54" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O54" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N54" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3">
-        <f t="shared" si="3"/>
+      <c r="A55" s="4">
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="B55" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="C55" s="1">
         <v>8.0</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="1">
+      <c r="D55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="1">
         <v>6.0</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H55" s="1">
         <v>25000.0</v>
       </c>
-      <c r="H55" s="1">
+      <c r="I55" s="1">
         <f t="shared" si="1"/>
         <v>22500</v>
       </c>
-      <c r="I55" s="1">
+      <c r="J55" s="1">
         <f t="shared" si="2"/>
         <v>1250</v>
       </c>
-      <c r="J55" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K55" s="1">
         <v>1.0</v>
       </c>
       <c r="L55" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M55" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O55" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N55" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P55" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3">
-        <f t="shared" si="3"/>
+      <c r="A56" s="4">
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="B56" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="C56" s="1">
         <v>4.0</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D56" s="1">
+      <c r="D56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" s="1">
         <v>6.0</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H56" s="1">
         <v>17000.0</v>
       </c>
-      <c r="H56" s="1">
+      <c r="I56" s="1">
         <f t="shared" si="1"/>
         <v>15300</v>
       </c>
-      <c r="I56" s="1">
+      <c r="J56" s="1">
         <f t="shared" si="2"/>
         <v>850</v>
       </c>
-      <c r="J56" s="1">
-        <v>0.0</v>
-      </c>
       <c r="K56" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L56" s="1">
         <v>1.0</v>
       </c>
       <c r="M56" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O56" s="2" t="s">
-        <v>18</v>
+        <v>1.0</v>
+      </c>
+      <c r="N56" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P56" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3">
-        <f t="shared" si="3"/>
+      <c r="A57" s="4">
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="B57" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="C57" s="1">
         <v>5.0</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D57" s="1">
+      <c r="D57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" s="1">
         <v>6.0</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H57" s="1">
         <v>60000.0</v>
       </c>
-      <c r="H57" s="1">
+      <c r="I57" s="1">
         <f t="shared" si="1"/>
         <v>54000</v>
       </c>
-      <c r="I57" s="1">
+      <c r="J57" s="1">
         <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-      <c r="J57" s="1">
-        <v>0.0</v>
-      </c>
       <c r="K57" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L57" s="1">
         <v>1.0</v>
       </c>
       <c r="M57" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O57" s="2" t="s">
-        <v>18</v>
+        <v>1.0</v>
+      </c>
+      <c r="N57" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3">
-        <f t="shared" si="3"/>
+      <c r="A58" s="4">
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="B58" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="C58" s="1">
         <v>7.0</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" s="1">
+      <c r="D58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="1">
         <v>6.0</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G58" s="1">
+      <c r="G58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H58" s="1">
         <v>9000.0</v>
       </c>
-      <c r="H58" s="1">
+      <c r="I58" s="1">
         <f t="shared" si="1"/>
         <v>8100</v>
       </c>
-      <c r="I58" s="1">
+      <c r="J58" s="1">
         <f t="shared" si="2"/>
         <v>450</v>
       </c>
-      <c r="J58" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K58" s="1">
         <v>1.0</v>
       </c>
       <c r="L58" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M58" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N58" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O58" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N58" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3">
-        <f t="shared" si="3"/>
+      <c r="A59" s="4">
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="B59" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="C59" s="1">
         <v>6.0</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D59" s="1">
+      <c r="D59" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E59" s="1">
         <v>6.0</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G59" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H59" s="1">
         <v>99000.0</v>
       </c>
-      <c r="H59" s="1">
+      <c r="I59" s="1">
         <f t="shared" si="1"/>
         <v>89100</v>
       </c>
-      <c r="I59" s="1">
+      <c r="J59" s="1">
         <f t="shared" si="2"/>
         <v>4950</v>
       </c>
-      <c r="J59" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K59" s="1">
         <v>1.0</v>
       </c>
       <c r="L59" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M59" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N59" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O59" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N59" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3">
-        <f t="shared" si="3"/>
+      <c r="A60" s="4">
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="B60" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="C60" s="1">
         <v>8.0</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" s="1">
+      <c r="D60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" s="1">
         <v>6.0</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G60" s="1">
+      <c r="G60" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H60" s="1">
         <v>64500.0</v>
       </c>
-      <c r="H60" s="1">
+      <c r="I60" s="1">
         <f t="shared" si="1"/>
         <v>58050</v>
       </c>
-      <c r="I60" s="1">
+      <c r="J60" s="1">
         <f t="shared" si="2"/>
         <v>3225</v>
       </c>
-      <c r="J60" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K60" s="1">
         <v>1.0</v>
       </c>
       <c r="L60" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M60" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N60" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O60" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N60" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3">
-        <f t="shared" si="3"/>
+      <c r="A61" s="4">
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="B61" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="C61" s="1">
         <v>8.0</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61" s="1">
+      <c r="D61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="1">
         <v>6.0</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H61" s="1">
         <v>32180.0</v>
       </c>
-      <c r="H61" s="1">
+      <c r="I61" s="1">
         <f t="shared" si="1"/>
         <v>28962</v>
       </c>
-      <c r="I61" s="1">
+      <c r="J61" s="1">
         <f t="shared" si="2"/>
         <v>1609</v>
       </c>
-      <c r="J61" s="1">
-        <v>1.0</v>
-      </c>
       <c r="K61" s="1">
         <v>1.0</v>
       </c>
       <c r="L61" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M61" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="N61" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O61" s="2" t="s">
-        <v>18</v>
+        <v>0.0</v>
+      </c>
+      <c r="N61" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="O61" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P61" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/storage/imports/products.xlsx
+++ b/storage/imports/products.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -25,6 +25,9 @@
     <t>category_name</t>
   </si>
   <si>
+    <t>categories</t>
+  </si>
+  <si>
     <t>merchant_id</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t>quantity</t>
+  </si>
+  <si>
+    <t>min_quantity</t>
   </si>
   <si>
     <t>description2</t>
@@ -410,14 +416,14 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="5" max="6" width="17.0"/>
+    <col customWidth="1" min="5" max="7" width="17.0"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -459,60 +465,70 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>1.0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1.0</v>
       </c>
       <c r="C2" s="1">
         <v>7.0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1">
+        <v>1.0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="1">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1">
         <v>50000.0</v>
       </c>
-      <c r="I2" s="1">
-        <f t="shared" ref="I2:I61" si="1">H2*90%</f>
+      <c r="J2" s="1">
+        <f t="shared" ref="J2:J61" si="1">I2*90%</f>
         <v>45000</v>
       </c>
-      <c r="J2" s="1">
-        <f t="shared" ref="J2:J61" si="2">H2*5%</f>
+      <c r="K2" s="1">
+        <f t="shared" ref="K2:K61" si="2">I2*5%</f>
         <v>2500</v>
       </c>
-      <c r="K2" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L2" s="1">
         <v>1.0</v>
       </c>
       <c r="M2" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N2" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -527,45 +543,50 @@
         <v>7.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
+        <v>1.0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="1">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1">
         <v>30000.0</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <f t="shared" si="1"/>
         <v>27000</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="K3" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L3" s="1">
         <v>1.0</v>
       </c>
       <c r="M3" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N3" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P3" s="3">
+        <f t="shared" ref="P3:P61" si="4">P2</f>
+        <v>1</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -580,50 +601,55 @@
         <v>8.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>1.0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="1">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="1">
         <v>28000.0</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <f t="shared" si="1"/>
         <v>25200</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <f t="shared" si="2"/>
         <v>1400</v>
       </c>
-      <c r="K4" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L4" s="1">
         <v>1.0</v>
       </c>
       <c r="M4" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N4" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P4" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4">
-        <f t="shared" ref="A5:A61" si="4">A4+1</f>
+        <f t="shared" ref="A5:A61" si="5">A4+1</f>
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -634,50 +660,55 @@
         <v>8.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>1.0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="1">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="1">
         <v>25000.0</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <f t="shared" si="1"/>
         <v>22500</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <f t="shared" si="2"/>
         <v>1250</v>
       </c>
-      <c r="K5" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L5" s="1">
         <v>1.0</v>
       </c>
       <c r="M5" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N5" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -688,50 +719,55 @@
         <v>4.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>1.0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="1">
+        <v>30</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="1">
         <v>17000.0</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <f t="shared" si="1"/>
         <v>15300</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <f t="shared" si="2"/>
         <v>850</v>
       </c>
-      <c r="K6" s="1">
-        <v>0.0</v>
-      </c>
       <c r="L6" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M6" s="1">
         <v>1.0</v>
       </c>
       <c r="N6" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>19</v>
+        <v>1.0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B7" s="1">
@@ -742,50 +778,55 @@
         <v>5.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>1.0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="1">
+        <v>33</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="1">
         <v>60000.0</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <f t="shared" si="1"/>
         <v>54000</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-      <c r="K7" s="1">
-        <v>0.0</v>
-      </c>
       <c r="L7" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M7" s="1">
         <v>1.0</v>
       </c>
       <c r="N7" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>19</v>
+        <v>1.0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B8" s="1">
@@ -796,50 +837,55 @@
         <v>7.0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>1.0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="1">
+        <v>35</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="1">
         <v>9000.0</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <f t="shared" si="1"/>
         <v>8100</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <f t="shared" si="2"/>
         <v>450</v>
       </c>
-      <c r="K8" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L8" s="1">
         <v>1.0</v>
       </c>
       <c r="M8" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N8" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B9" s="1">
@@ -850,50 +896,55 @@
         <v>6.0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <v>1.0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="1">
+        <v>38</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="1">
         <v>99000.0</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <f t="shared" si="1"/>
         <v>89100</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <f t="shared" si="2"/>
         <v>4950</v>
       </c>
-      <c r="K9" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L9" s="1">
         <v>1.0</v>
       </c>
       <c r="M9" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N9" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B10" s="1">
@@ -904,50 +955,55 @@
         <v>8.0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <v>1.0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="1">
+        <v>40</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="1">
         <v>64500.0</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <f t="shared" si="1"/>
         <v>58050</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <f t="shared" si="2"/>
         <v>3225</v>
       </c>
-      <c r="K10" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L10" s="1">
         <v>1.0</v>
       </c>
       <c r="M10" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N10" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="B11" s="1">
@@ -958,50 +1014,55 @@
         <v>8.0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
+        <v>1.0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="1">
+        <v>42</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="1">
         <v>32180.0</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <f t="shared" si="1"/>
         <v>28962</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <f t="shared" si="2"/>
         <v>1609</v>
       </c>
-      <c r="K11" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L11" s="1">
         <v>1.0</v>
       </c>
       <c r="M11" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N11" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="B12" s="1">
@@ -1012,50 +1073,55 @@
         <v>7.0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="1">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
         <v>2.0</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="1">
+        <v>19</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="1">
         <v>50000.0</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <f t="shared" si="1"/>
         <v>45000</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <f t="shared" si="2"/>
         <v>2500</v>
       </c>
-      <c r="K12" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L12" s="1">
         <v>1.0</v>
       </c>
       <c r="M12" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N12" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="B13" s="1">
@@ -1066,50 +1132,55 @@
         <v>7.0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="1">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1">
         <v>2.0</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="1">
+        <v>22</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="1">
         <v>30000.0</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <f t="shared" si="1"/>
         <v>27000</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="K13" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L13" s="1">
         <v>1.0</v>
       </c>
       <c r="M13" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N13" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="B14" s="1">
@@ -1120,50 +1191,55 @@
         <v>8.0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="1">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1">
         <v>2.0</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="1">
+        <v>25</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="1">
         <v>28000.0</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <f t="shared" si="1"/>
         <v>25200</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <f t="shared" si="2"/>
         <v>1400</v>
       </c>
-      <c r="K14" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L14" s="1">
         <v>1.0</v>
       </c>
       <c r="M14" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N14" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="B15" s="1">
@@ -1174,50 +1250,55 @@
         <v>8.0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="1">
+        <v>24</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1">
         <v>2.0</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="1">
+        <v>27</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="1">
         <v>25000.0</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <f t="shared" si="1"/>
         <v>22500</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <f t="shared" si="2"/>
         <v>1250</v>
       </c>
-      <c r="K15" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L15" s="1">
         <v>1.0</v>
       </c>
       <c r="M15" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N15" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B16" s="1">
@@ -1228,50 +1309,55 @@
         <v>4.0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="1">
+        <v>29</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1">
         <v>2.0</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="1">
+        <v>30</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="1">
         <v>17000.0</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <f t="shared" si="1"/>
         <v>15300</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <f t="shared" si="2"/>
         <v>850</v>
       </c>
-      <c r="K16" s="1">
-        <v>0.0</v>
-      </c>
       <c r="L16" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M16" s="1">
         <v>1.0</v>
       </c>
       <c r="N16" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>19</v>
+        <v>1.0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P16" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="B17" s="1">
@@ -1282,50 +1368,55 @@
         <v>5.0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="1">
+        <v>32</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1">
         <v>2.0</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="1">
+        <v>33</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="1">
         <v>60000.0</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <f t="shared" si="1"/>
         <v>54000</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-      <c r="K17" s="1">
-        <v>0.0</v>
-      </c>
       <c r="L17" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M17" s="1">
         <v>1.0</v>
       </c>
       <c r="N17" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>19</v>
+        <v>1.0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="B18" s="1">
@@ -1336,50 +1427,55 @@
         <v>7.0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="1">
+        <v>18</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1">
         <v>2.0</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="1">
+        <v>35</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="1">
         <v>9000.0</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <f t="shared" si="1"/>
         <v>8100</v>
       </c>
-      <c r="J18" s="1">
+      <c r="K18" s="1">
         <f t="shared" si="2"/>
         <v>450</v>
       </c>
-      <c r="K18" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L18" s="1">
         <v>1.0</v>
       </c>
       <c r="M18" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N18" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P18" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="B19" s="1">
@@ -1390,50 +1486,55 @@
         <v>6.0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="1">
+        <v>37</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1">
         <v>2.0</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" s="1">
+        <v>38</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="1">
         <v>99000.0</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <f t="shared" si="1"/>
         <v>89100</v>
       </c>
-      <c r="J19" s="1">
+      <c r="K19" s="1">
         <f t="shared" si="2"/>
         <v>4950</v>
       </c>
-      <c r="K19" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L19" s="1">
         <v>1.0</v>
       </c>
       <c r="M19" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N19" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P19" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="B20" s="1">
@@ -1444,50 +1545,55 @@
         <v>8.0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="1">
+        <v>24</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1">
         <v>2.0</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="1">
+        <v>40</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="1">
         <v>64500.0</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J20" s="1">
         <f t="shared" si="1"/>
         <v>58050</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K20" s="1">
         <f t="shared" si="2"/>
         <v>3225</v>
       </c>
-      <c r="K20" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L20" s="1">
         <v>1.0</v>
       </c>
       <c r="M20" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N20" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P20" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="B21" s="1">
@@ -1498,50 +1604,55 @@
         <v>8.0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="1">
+        <v>24</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1">
         <v>2.0</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="1">
+        <v>42</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="1">
         <v>32180.0</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J21" s="1">
         <f t="shared" si="1"/>
         <v>28962</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K21" s="1">
         <f t="shared" si="2"/>
         <v>1609</v>
       </c>
-      <c r="K21" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L21" s="1">
         <v>1.0</v>
       </c>
       <c r="M21" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N21" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P21" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="B22" s="1">
@@ -1552,50 +1663,55 @@
         <v>7.0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="1">
+        <v>18</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1">
         <v>3.0</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="1">
+        <v>19</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="1">
         <v>50000.0</v>
       </c>
-      <c r="I22" s="1">
+      <c r="J22" s="1">
         <f t="shared" si="1"/>
         <v>45000</v>
       </c>
-      <c r="J22" s="1">
+      <c r="K22" s="1">
         <f t="shared" si="2"/>
         <v>2500</v>
       </c>
-      <c r="K22" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L22" s="1">
         <v>1.0</v>
       </c>
       <c r="M22" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N22" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P22" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="B23" s="1">
@@ -1606,50 +1722,55 @@
         <v>7.0</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="1">
+        <v>18</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1">
         <v>3.0</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="1">
+        <v>22</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="1">
         <v>30000.0</v>
       </c>
-      <c r="I23" s="1">
+      <c r="J23" s="1">
         <f t="shared" si="1"/>
         <v>27000</v>
       </c>
-      <c r="J23" s="1">
+      <c r="K23" s="1">
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="K23" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L23" s="1">
         <v>1.0</v>
       </c>
       <c r="M23" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N23" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P23" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="B24" s="1">
@@ -1660,50 +1781,55 @@
         <v>8.0</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="1">
+        <v>24</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1">
         <v>3.0</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="1">
+        <v>25</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="1">
         <v>28000.0</v>
       </c>
-      <c r="I24" s="1">
+      <c r="J24" s="1">
         <f t="shared" si="1"/>
         <v>25200</v>
       </c>
-      <c r="J24" s="1">
+      <c r="K24" s="1">
         <f t="shared" si="2"/>
         <v>1400</v>
       </c>
-      <c r="K24" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L24" s="1">
         <v>1.0</v>
       </c>
       <c r="M24" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N24" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P24" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="B25" s="1">
@@ -1714,50 +1840,55 @@
         <v>8.0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="1">
+        <v>24</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1">
         <v>3.0</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="G25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="1">
+        <v>27</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="1">
         <v>25000.0</v>
       </c>
-      <c r="I25" s="1">
+      <c r="J25" s="1">
         <f t="shared" si="1"/>
         <v>22500</v>
       </c>
-      <c r="J25" s="1">
+      <c r="K25" s="1">
         <f t="shared" si="2"/>
         <v>1250</v>
       </c>
-      <c r="K25" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L25" s="1">
         <v>1.0</v>
       </c>
       <c r="M25" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N25" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P25" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="B26" s="1">
@@ -1768,50 +1899,55 @@
         <v>4.0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="1">
+        <v>29</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1">
         <v>3.0</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="G26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" s="1">
+        <v>30</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="1">
         <v>17000.0</v>
       </c>
-      <c r="I26" s="1">
+      <c r="J26" s="1">
         <f t="shared" si="1"/>
         <v>15300</v>
       </c>
-      <c r="J26" s="1">
+      <c r="K26" s="1">
         <f t="shared" si="2"/>
         <v>850</v>
       </c>
-      <c r="K26" s="1">
-        <v>0.0</v>
-      </c>
       <c r="L26" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M26" s="1">
         <v>1.0</v>
       </c>
       <c r="N26" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>19</v>
+        <v>1.0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P26" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="B27" s="1">
@@ -1822,50 +1958,55 @@
         <v>5.0</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="1">
+        <v>32</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1">
         <v>3.0</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="G27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="1">
+        <v>33</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="1">
         <v>60000.0</v>
       </c>
-      <c r="I27" s="1">
+      <c r="J27" s="1">
         <f t="shared" si="1"/>
         <v>54000</v>
       </c>
-      <c r="J27" s="1">
+      <c r="K27" s="1">
         <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-      <c r="K27" s="1">
-        <v>0.0</v>
-      </c>
       <c r="L27" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M27" s="1">
         <v>1.0</v>
       </c>
       <c r="N27" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>19</v>
+        <v>1.0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P27" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="B28" s="1">
@@ -1876,50 +2017,55 @@
         <v>7.0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="1">
+        <v>18</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1">
         <v>3.0</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="G28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28" s="1">
+        <v>35</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" s="1">
         <v>9000.0</v>
       </c>
-      <c r="I28" s="1">
+      <c r="J28" s="1">
         <f t="shared" si="1"/>
         <v>8100</v>
       </c>
-      <c r="J28" s="1">
+      <c r="K28" s="1">
         <f t="shared" si="2"/>
         <v>450</v>
       </c>
-      <c r="K28" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L28" s="1">
         <v>1.0</v>
       </c>
       <c r="M28" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N28" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P28" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="B29" s="1">
@@ -1930,50 +2076,55 @@
         <v>6.0</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="1">
+        <v>37</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1">
         <v>3.0</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="G29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" s="1">
+        <v>38</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" s="1">
         <v>99000.0</v>
       </c>
-      <c r="I29" s="1">
+      <c r="J29" s="1">
         <f t="shared" si="1"/>
         <v>89100</v>
       </c>
-      <c r="J29" s="1">
+      <c r="K29" s="1">
         <f t="shared" si="2"/>
         <v>4950</v>
       </c>
-      <c r="K29" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L29" s="1">
         <v>1.0</v>
       </c>
       <c r="M29" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N29" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O29" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P29" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="B30" s="1">
@@ -1984,50 +2135,55 @@
         <v>8.0</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="1">
+        <v>24</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1">
         <v>3.0</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H30" s="1">
+        <v>40</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="1">
         <v>64500.0</v>
       </c>
-      <c r="I30" s="1">
+      <c r="J30" s="1">
         <f t="shared" si="1"/>
         <v>58050</v>
       </c>
-      <c r="J30" s="1">
+      <c r="K30" s="1">
         <f t="shared" si="2"/>
         <v>3225</v>
       </c>
-      <c r="K30" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L30" s="1">
         <v>1.0</v>
       </c>
       <c r="M30" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N30" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P30" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P30" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="B31" s="1">
@@ -2038,1664 +2194,1819 @@
         <v>8.0</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="1">
+        <v>24</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1">
         <v>3.0</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H31" s="1">
+        <v>42</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31" s="1">
         <v>32180.0</v>
       </c>
-      <c r="I31" s="1">
+      <c r="J31" s="1">
         <f t="shared" si="1"/>
         <v>28962</v>
       </c>
-      <c r="J31" s="1">
+      <c r="K31" s="1">
         <f t="shared" si="2"/>
         <v>1609</v>
       </c>
-      <c r="K31" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L31" s="1">
         <v>1.0</v>
       </c>
       <c r="M31" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N31" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O31" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P31" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>2.0</v>
       </c>
       <c r="C32" s="1">
         <v>7.0</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="1">
+        <v>18</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1">
         <v>4.0</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" s="1">
+        <v>19</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="1">
         <v>50000.0</v>
       </c>
-      <c r="I32" s="1">
+      <c r="J32" s="1">
         <f t="shared" si="1"/>
         <v>45000</v>
       </c>
-      <c r="J32" s="1">
+      <c r="K32" s="1">
         <f t="shared" si="2"/>
         <v>2500</v>
       </c>
-      <c r="K32" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L32" s="1">
         <v>1.0</v>
       </c>
       <c r="M32" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N32" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O32" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P32" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <f t="shared" ref="B33:B61" si="5">B32</f>
+        <f t="shared" ref="B33:B61" si="6">B32</f>
         <v>2</v>
       </c>
       <c r="C33" s="1">
         <v>7.0</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="1">
+        <v>18</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1">
         <v>4.0</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="G33" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="1">
+        <v>22</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="1">
         <v>30000.0</v>
       </c>
-      <c r="I33" s="1">
+      <c r="J33" s="1">
         <f t="shared" si="1"/>
         <v>27000</v>
       </c>
-      <c r="J33" s="1">
+      <c r="K33" s="1">
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="K33" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L33" s="1">
         <v>1.0</v>
       </c>
       <c r="M33" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N33" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O33" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P33" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C34" s="1">
         <v>8.0</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="1">
+        <v>24</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1">
         <v>4.0</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H34" s="1">
+        <v>25</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" s="1">
         <v>28000.0</v>
       </c>
-      <c r="I34" s="1">
+      <c r="J34" s="1">
         <f t="shared" si="1"/>
         <v>25200</v>
       </c>
-      <c r="J34" s="1">
+      <c r="K34" s="1">
         <f t="shared" si="2"/>
         <v>1400</v>
       </c>
-      <c r="K34" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L34" s="1">
         <v>1.0</v>
       </c>
       <c r="M34" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N34" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O34" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P34" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O34" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P34" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C35" s="1">
         <v>8.0</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="1">
+        <v>24</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1">
         <v>4.0</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="G35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H35" s="1">
+        <v>27</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="1">
         <v>25000.0</v>
       </c>
-      <c r="I35" s="1">
+      <c r="J35" s="1">
         <f t="shared" si="1"/>
         <v>22500</v>
       </c>
-      <c r="J35" s="1">
+      <c r="K35" s="1">
         <f t="shared" si="2"/>
         <v>1250</v>
       </c>
-      <c r="K35" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L35" s="1">
         <v>1.0</v>
       </c>
       <c r="M35" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N35" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O35" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P35" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C36" s="1">
         <v>4.0</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" s="1">
+        <v>29</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1">
         <v>4.0</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="G36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H36" s="1">
+        <v>30</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" s="1">
         <v>17000.0</v>
       </c>
-      <c r="I36" s="1">
+      <c r="J36" s="1">
         <f t="shared" si="1"/>
         <v>15300</v>
       </c>
-      <c r="J36" s="1">
+      <c r="K36" s="1">
         <f t="shared" si="2"/>
         <v>850</v>
       </c>
-      <c r="K36" s="1">
-        <v>0.0</v>
-      </c>
       <c r="L36" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M36" s="1">
         <v>1.0</v>
       </c>
       <c r="N36" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O36" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P36" s="3" t="s">
-        <v>19</v>
+        <v>1.0</v>
+      </c>
+      <c r="O36" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P36" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C37" s="1">
         <v>5.0</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" s="1">
+        <v>32</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1">
         <v>4.0</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="G37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" s="1">
+        <v>33</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37" s="1">
         <v>60000.0</v>
       </c>
-      <c r="I37" s="1">
+      <c r="J37" s="1">
         <f t="shared" si="1"/>
         <v>54000</v>
       </c>
-      <c r="J37" s="1">
+      <c r="K37" s="1">
         <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-      <c r="K37" s="1">
-        <v>0.0</v>
-      </c>
       <c r="L37" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M37" s="1">
         <v>1.0</v>
       </c>
       <c r="N37" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P37" s="3" t="s">
-        <v>19</v>
+        <v>1.0</v>
+      </c>
+      <c r="O37" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P37" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C38" s="1">
         <v>7.0</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" s="1">
+        <v>18</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1">
         <v>4.0</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="G38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H38" s="1">
+        <v>35</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I38" s="1">
         <v>9000.0</v>
       </c>
-      <c r="I38" s="1">
+      <c r="J38" s="1">
         <f t="shared" si="1"/>
         <v>8100</v>
       </c>
-      <c r="J38" s="1">
+      <c r="K38" s="1">
         <f t="shared" si="2"/>
         <v>450</v>
       </c>
-      <c r="K38" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L38" s="1">
         <v>1.0</v>
       </c>
       <c r="M38" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N38" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O38" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P38" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O38" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P38" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C39" s="1">
         <v>6.0</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E39" s="1">
+        <v>37</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1">
         <v>4.0</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="G39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H39" s="1">
+        <v>38</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I39" s="1">
         <v>99000.0</v>
       </c>
-      <c r="I39" s="1">
+      <c r="J39" s="1">
         <f t="shared" si="1"/>
         <v>89100</v>
       </c>
-      <c r="J39" s="1">
+      <c r="K39" s="1">
         <f t="shared" si="2"/>
         <v>4950</v>
       </c>
-      <c r="K39" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L39" s="1">
         <v>1.0</v>
       </c>
       <c r="M39" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N39" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O39" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P39" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O39" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P39" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C40" s="1">
         <v>8.0</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E40" s="1">
+        <v>24</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1">
         <v>4.0</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="G40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H40" s="1">
+        <v>40</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I40" s="1">
         <v>64500.0</v>
       </c>
-      <c r="I40" s="1">
+      <c r="J40" s="1">
         <f t="shared" si="1"/>
         <v>58050</v>
       </c>
-      <c r="J40" s="1">
+      <c r="K40" s="1">
         <f t="shared" si="2"/>
         <v>3225</v>
       </c>
-      <c r="K40" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L40" s="1">
         <v>1.0</v>
       </c>
       <c r="M40" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N40" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O40" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P40" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O40" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P40" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C41" s="1">
         <v>8.0</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" s="1">
+        <v>24</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1">
         <v>4.0</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H41" s="1">
+        <v>42</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I41" s="1">
         <v>32180.0</v>
       </c>
-      <c r="I41" s="1">
+      <c r="J41" s="1">
         <f t="shared" si="1"/>
         <v>28962</v>
       </c>
-      <c r="J41" s="1">
+      <c r="K41" s="1">
         <f t="shared" si="2"/>
         <v>1609</v>
       </c>
-      <c r="K41" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L41" s="1">
         <v>1.0</v>
       </c>
       <c r="M41" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N41" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O41" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P41" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C42" s="1">
         <v>7.0</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" s="1">
+        <v>18</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1">
         <v>5.0</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G42" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" s="1">
+        <v>19</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="1">
         <v>50000.0</v>
       </c>
-      <c r="I42" s="1">
+      <c r="J42" s="1">
         <f t="shared" si="1"/>
         <v>45000</v>
       </c>
-      <c r="J42" s="1">
+      <c r="K42" s="1">
         <f t="shared" si="2"/>
         <v>2500</v>
       </c>
-      <c r="K42" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L42" s="1">
         <v>1.0</v>
       </c>
       <c r="M42" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N42" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O42" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P42" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C43" s="1">
         <v>7.0</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="1">
+        <v>18</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1">
         <v>5.0</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="G43" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H43" s="1">
+        <v>22</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" s="1">
         <v>30000.0</v>
       </c>
-      <c r="I43" s="1">
+      <c r="J43" s="1">
         <f t="shared" si="1"/>
         <v>27000</v>
       </c>
-      <c r="J43" s="1">
+      <c r="K43" s="1">
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="K43" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L43" s="1">
         <v>1.0</v>
       </c>
       <c r="M43" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N43" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O43" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P43" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C44" s="1">
         <v>8.0</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E44" s="1">
+        <v>24</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1">
         <v>5.0</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G44" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H44" s="1">
+        <v>25</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I44" s="1">
         <v>28000.0</v>
       </c>
-      <c r="I44" s="1">
+      <c r="J44" s="1">
         <f t="shared" si="1"/>
         <v>25200</v>
       </c>
-      <c r="J44" s="1">
+      <c r="K44" s="1">
         <f t="shared" si="2"/>
         <v>1400</v>
       </c>
-      <c r="K44" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L44" s="1">
         <v>1.0</v>
       </c>
       <c r="M44" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N44" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O44" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P44" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C45" s="1">
         <v>8.0</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" s="1">
+        <v>24</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1">
         <v>5.0</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="G45" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H45" s="1">
+        <v>27</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" s="1">
         <v>25000.0</v>
       </c>
-      <c r="I45" s="1">
+      <c r="J45" s="1">
         <f t="shared" si="1"/>
         <v>22500</v>
       </c>
-      <c r="J45" s="1">
+      <c r="K45" s="1">
         <f t="shared" si="2"/>
         <v>1250</v>
       </c>
-      <c r="K45" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L45" s="1">
         <v>1.0</v>
       </c>
       <c r="M45" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N45" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O45" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P45" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C46" s="1">
         <v>4.0</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" s="1">
+        <v>29</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1">
         <v>5.0</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="G46" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H46" s="1">
+        <v>30</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I46" s="1">
         <v>17000.0</v>
       </c>
-      <c r="I46" s="1">
+      <c r="J46" s="1">
         <f t="shared" si="1"/>
         <v>15300</v>
       </c>
-      <c r="J46" s="1">
+      <c r="K46" s="1">
         <f t="shared" si="2"/>
         <v>850</v>
       </c>
-      <c r="K46" s="1">
-        <v>0.0</v>
-      </c>
       <c r="L46" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M46" s="1">
         <v>1.0</v>
       </c>
       <c r="N46" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>19</v>
+        <v>1.0</v>
+      </c>
+      <c r="O46" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P46" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C47" s="1">
         <v>5.0</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E47" s="1">
+        <v>32</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1">
         <v>5.0</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="G47" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H47" s="1">
+        <v>33</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I47" s="1">
         <v>60000.0</v>
       </c>
-      <c r="I47" s="1">
+      <c r="J47" s="1">
         <f t="shared" si="1"/>
         <v>54000</v>
       </c>
-      <c r="J47" s="1">
+      <c r="K47" s="1">
         <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-      <c r="K47" s="1">
-        <v>0.0</v>
-      </c>
       <c r="L47" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M47" s="1">
         <v>1.0</v>
       </c>
       <c r="N47" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>19</v>
+        <v>1.0</v>
+      </c>
+      <c r="O47" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P47" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C48" s="1">
         <v>7.0</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E48" s="1">
+        <v>18</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1">
         <v>5.0</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="G48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H48" s="1">
+        <v>35</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I48" s="1">
         <v>9000.0</v>
       </c>
-      <c r="I48" s="1">
+      <c r="J48" s="1">
         <f t="shared" si="1"/>
         <v>8100</v>
       </c>
-      <c r="J48" s="1">
+      <c r="K48" s="1">
         <f t="shared" si="2"/>
         <v>450</v>
       </c>
-      <c r="K48" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L48" s="1">
         <v>1.0</v>
       </c>
       <c r="M48" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N48" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O48" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P48" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C49" s="1">
         <v>6.0</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E49" s="1">
+        <v>37</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1">
         <v>5.0</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="G49" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H49" s="1">
+        <v>38</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I49" s="1">
         <v>99000.0</v>
       </c>
-      <c r="I49" s="1">
+      <c r="J49" s="1">
         <f t="shared" si="1"/>
         <v>89100</v>
       </c>
-      <c r="J49" s="1">
+      <c r="K49" s="1">
         <f t="shared" si="2"/>
         <v>4950</v>
       </c>
-      <c r="K49" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L49" s="1">
         <v>1.0</v>
       </c>
       <c r="M49" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N49" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O49" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P49" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C50" s="1">
         <v>8.0</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E50" s="1">
+        <v>24</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1">
         <v>5.0</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="G50" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H50" s="1">
+        <v>40</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I50" s="1">
         <v>64500.0</v>
       </c>
-      <c r="I50" s="1">
+      <c r="J50" s="1">
         <f t="shared" si="1"/>
         <v>58050</v>
       </c>
-      <c r="J50" s="1">
+      <c r="K50" s="1">
         <f t="shared" si="2"/>
         <v>3225</v>
       </c>
-      <c r="K50" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L50" s="1">
         <v>1.0</v>
       </c>
       <c r="M50" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N50" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O50" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P50" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O50" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P50" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q50" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R50" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C51" s="1">
         <v>8.0</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E51" s="1">
+        <v>24</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1">
         <v>5.0</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G51" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H51" s="1">
+        <v>42</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I51" s="1">
         <v>32180.0</v>
       </c>
-      <c r="I51" s="1">
+      <c r="J51" s="1">
         <f t="shared" si="1"/>
         <v>28962</v>
       </c>
-      <c r="J51" s="1">
+      <c r="K51" s="1">
         <f t="shared" si="2"/>
         <v>1609</v>
       </c>
-      <c r="K51" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L51" s="1">
         <v>1.0</v>
       </c>
       <c r="M51" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N51" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O51" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P51" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O51" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P51" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q51" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R51" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C52" s="1">
         <v>7.0</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E52" s="1">
+        <v>18</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1">
         <v>6.0</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G52" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H52" s="1">
+        <v>19</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="1">
         <v>50000.0</v>
       </c>
-      <c r="I52" s="1">
+      <c r="J52" s="1">
         <f t="shared" si="1"/>
         <v>45000</v>
       </c>
-      <c r="J52" s="1">
+      <c r="K52" s="1">
         <f t="shared" si="2"/>
         <v>2500</v>
       </c>
-      <c r="K52" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L52" s="1">
         <v>1.0</v>
       </c>
       <c r="M52" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N52" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O52" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P52" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C53" s="1">
         <v>7.0</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E53" s="1">
+        <v>18</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1">
         <v>6.0</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="G53" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H53" s="1">
+        <v>22</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I53" s="1">
         <v>30000.0</v>
       </c>
-      <c r="I53" s="1">
+      <c r="J53" s="1">
         <f t="shared" si="1"/>
         <v>27000</v>
       </c>
-      <c r="J53" s="1">
+      <c r="K53" s="1">
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="K53" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L53" s="1">
         <v>1.0</v>
       </c>
       <c r="M53" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N53" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O53" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P53" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O53" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P53" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q53" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R53" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C54" s="1">
         <v>8.0</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E54" s="1">
+        <v>24</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1">
         <v>6.0</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G54" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H54" s="1">
+        <v>25</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I54" s="1">
         <v>28000.0</v>
       </c>
-      <c r="I54" s="1">
+      <c r="J54" s="1">
         <f t="shared" si="1"/>
         <v>25200</v>
       </c>
-      <c r="J54" s="1">
+      <c r="K54" s="1">
         <f t="shared" si="2"/>
         <v>1400</v>
       </c>
-      <c r="K54" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L54" s="1">
         <v>1.0</v>
       </c>
       <c r="M54" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N54" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O54" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P54" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C55" s="1">
         <v>8.0</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E55" s="1">
+        <v>24</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1">
         <v>6.0</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="G55" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H55" s="1">
+        <v>27</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" s="1">
         <v>25000.0</v>
       </c>
-      <c r="I55" s="1">
+      <c r="J55" s="1">
         <f t="shared" si="1"/>
         <v>22500</v>
       </c>
-      <c r="J55" s="1">
+      <c r="K55" s="1">
         <f t="shared" si="2"/>
         <v>1250</v>
       </c>
-      <c r="K55" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L55" s="1">
         <v>1.0</v>
       </c>
       <c r="M55" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N55" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O55" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P55" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O55" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P55" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q55" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R55" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C56" s="1">
         <v>4.0</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E56" s="1">
+        <v>29</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1">
         <v>6.0</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="G56" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H56" s="1">
+        <v>30</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I56" s="1">
         <v>17000.0</v>
       </c>
-      <c r="I56" s="1">
+      <c r="J56" s="1">
         <f t="shared" si="1"/>
         <v>15300</v>
       </c>
-      <c r="J56" s="1">
+      <c r="K56" s="1">
         <f t="shared" si="2"/>
         <v>850</v>
       </c>
-      <c r="K56" s="1">
-        <v>0.0</v>
-      </c>
       <c r="L56" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M56" s="1">
         <v>1.0</v>
       </c>
       <c r="N56" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O56" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P56" s="3" t="s">
-        <v>19</v>
+        <v>1.0</v>
+      </c>
+      <c r="O56" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P56" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q56" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R56" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C57" s="1">
         <v>5.0</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E57" s="1">
+        <v>32</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1">
         <v>6.0</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="G57" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H57" s="1">
+        <v>33</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I57" s="1">
         <v>60000.0</v>
       </c>
-      <c r="I57" s="1">
+      <c r="J57" s="1">
         <f t="shared" si="1"/>
         <v>54000</v>
       </c>
-      <c r="J57" s="1">
+      <c r="K57" s="1">
         <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-      <c r="K57" s="1">
-        <v>0.0</v>
-      </c>
       <c r="L57" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M57" s="1">
         <v>1.0</v>
       </c>
       <c r="N57" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>19</v>
+        <v>1.0</v>
+      </c>
+      <c r="O57" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P57" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C58" s="1">
         <v>7.0</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" s="1">
+        <v>18</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1">
         <v>6.0</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="G58" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H58" s="1">
+        <v>35</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I58" s="1">
         <v>9000.0</v>
       </c>
-      <c r="I58" s="1">
+      <c r="J58" s="1">
         <f t="shared" si="1"/>
         <v>8100</v>
       </c>
-      <c r="J58" s="1">
+      <c r="K58" s="1">
         <f t="shared" si="2"/>
         <v>450</v>
       </c>
-      <c r="K58" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L58" s="1">
         <v>1.0</v>
       </c>
       <c r="M58" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N58" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O58" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P58" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C59" s="1">
         <v>6.0</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E59" s="1">
+        <v>37</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1">
         <v>6.0</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="G59" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H59" s="1">
+        <v>38</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I59" s="1">
         <v>99000.0</v>
       </c>
-      <c r="I59" s="1">
+      <c r="J59" s="1">
         <f t="shared" si="1"/>
         <v>89100</v>
       </c>
-      <c r="J59" s="1">
+      <c r="K59" s="1">
         <f t="shared" si="2"/>
         <v>4950</v>
       </c>
-      <c r="K59" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L59" s="1">
         <v>1.0</v>
       </c>
       <c r="M59" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N59" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O59" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P59" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C60" s="1">
         <v>8.0</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E60" s="1">
+        <v>24</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1">
         <v>6.0</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="G60" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H60" s="1">
+        <v>40</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I60" s="1">
         <v>64500.0</v>
       </c>
-      <c r="I60" s="1">
+      <c r="J60" s="1">
         <f t="shared" si="1"/>
         <v>58050</v>
       </c>
-      <c r="J60" s="1">
+      <c r="K60" s="1">
         <f t="shared" si="2"/>
         <v>3225</v>
       </c>
-      <c r="K60" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L60" s="1">
         <v>1.0</v>
       </c>
       <c r="M60" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N60" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O60" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P60" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C61" s="1">
         <v>8.0</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E61" s="1">
+        <v>24</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1">
         <v>6.0</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G61" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H61" s="1">
+        <v>42</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I61" s="1">
         <v>32180.0</v>
       </c>
-      <c r="I61" s="1">
+      <c r="J61" s="1">
         <f t="shared" si="1"/>
         <v>28962</v>
       </c>
-      <c r="J61" s="1">
+      <c r="K61" s="1">
         <f t="shared" si="2"/>
         <v>1609</v>
       </c>
-      <c r="K61" s="1">
-        <v>1.0</v>
-      </c>
       <c r="L61" s="1">
         <v>1.0</v>
       </c>
       <c r="M61" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N61" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="O61" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P61" s="3" t="s">
-        <v>19</v>
+        <v>0.0</v>
+      </c>
+      <c r="O61" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="P61" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q61" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R61" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
